--- a/AnalysisCat.Helper/CatConfig/Cat062p9ed118.xlsx
+++ b/AnalysisCat.Helper/CatConfig/Cat062p9ed118.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\AnalysisCat\AnalysisCat.Helper\CatConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD50356-BD96-4EC8-8DAB-F0315D164B28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87931F3E-2EA0-435D-A6C4-1A66B4A82C34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>FRN</t>
   </si>
   <si>
-    <t>Data Item</t>
-  </si>
-  <si>
     <t>I062/010</t>
   </si>
   <si>
@@ -232,6 +229,10 @@
   </si>
   <si>
     <t>Reserved For Special Purpose Indicator</t>
+  </si>
+  <si>
+    <t>DataItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -574,13 +575,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -588,10 +589,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -602,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -610,10 +611,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -624,10 +625,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -638,10 +639,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D6" s="1">
         <v>8</v>
@@ -652,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -666,10 +667,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
@@ -677,10 +678,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -688,10 +689,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -702,10 +703,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -716,10 +717,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
@@ -730,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -744,10 +745,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -758,13 +759,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -772,21 +773,21 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -794,10 +795,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -808,13 +809,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -822,10 +823,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -836,10 +837,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -850,10 +851,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -864,10 +865,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -878,21 +879,21 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -900,13 +901,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -914,10 +915,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -928,13 +929,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -942,10 +943,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D29" s="1">
         <v>2</v>
@@ -956,13 +957,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -970,13 +971,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -984,21 +985,21 @@
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1006,7 +1007,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1014,7 +1015,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1022,7 +1023,7 @@
         <v>31</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1030,7 +1031,7 @@
         <v>32</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1038,7 +1039,7 @@
         <v>33</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1046,13 +1047,13 @@
         <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1060,21 +1061,21 @@
         <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
